--- a/app/COVID19master/data/RL_input.xlsx
+++ b/app/COVID19master/data/RL_input.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eleanor/Documents/GitHub/COVID-University/app/COVID19master/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E521D6D-F436-2A49-B010-E9086521FCF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92680FF7-8986-AC46-8857-90C85E0F7C37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="460" windowWidth="21840" windowHeight="13140" firstSheet="2" activeTab="4" xr2:uid="{96C41B70-22ED-C54B-8170-43C10D55C89D}"/>
+    <workbookView xWindow="960" yWindow="460" windowWidth="21840" windowHeight="13140" activeTab="1" xr2:uid="{96C41B70-22ED-C54B-8170-43C10D55C89D}"/>
   </bookViews>
   <sheets>
     <sheet name="VSL" sheetId="1" r:id="rId1"/>
     <sheet name="VSL_mod" sheetId="5" r:id="rId2"/>
-    <sheet name="labor_for" sheetId="4" r:id="rId3"/>
-    <sheet name="others" sheetId="7" r:id="rId4"/>
-    <sheet name="Source" sheetId="10" r:id="rId5"/>
+    <sheet name="others" sheetId="7" r:id="rId3"/>
+    <sheet name="Source" sheetId="10" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>0</t>
   </si>
@@ -63,9 +62,6 @@
     <t>80</t>
   </si>
   <si>
-    <t>DistrictofColumbia</t>
-  </si>
-  <si>
     <t>lower_age</t>
   </si>
   <si>
@@ -78,159 +74,6 @@
     <t>age</t>
   </si>
   <si>
-    <t>AL</t>
-  </si>
-  <si>
-    <t>AK</t>
-  </si>
-  <si>
-    <t>AZ</t>
-  </si>
-  <si>
-    <t>AR</t>
-  </si>
-  <si>
-    <t>CA</t>
-  </si>
-  <si>
-    <t>CO</t>
-  </si>
-  <si>
-    <t>CT</t>
-  </si>
-  <si>
-    <t>DE</t>
-  </si>
-  <si>
-    <t>FL</t>
-  </si>
-  <si>
-    <t>GA</t>
-  </si>
-  <si>
-    <t>HI</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>IL</t>
-  </si>
-  <si>
-    <t>IN</t>
-  </si>
-  <si>
-    <t>IA</t>
-  </si>
-  <si>
-    <t>KS</t>
-  </si>
-  <si>
-    <t>KY</t>
-  </si>
-  <si>
-    <t>LA</t>
-  </si>
-  <si>
-    <t>ME</t>
-  </si>
-  <si>
-    <t>MD</t>
-  </si>
-  <si>
-    <t>MA</t>
-  </si>
-  <si>
-    <t>MI</t>
-  </si>
-  <si>
-    <t>MS</t>
-  </si>
-  <si>
-    <t>MO</t>
-  </si>
-  <si>
-    <t>MN</t>
-  </si>
-  <si>
-    <t>MT</t>
-  </si>
-  <si>
-    <t>NE</t>
-  </si>
-  <si>
-    <t>NV</t>
-  </si>
-  <si>
-    <t>NH</t>
-  </si>
-  <si>
-    <t>NJ</t>
-  </si>
-  <si>
-    <t>NM</t>
-  </si>
-  <si>
-    <t>NY</t>
-  </si>
-  <si>
-    <t>NC</t>
-  </si>
-  <si>
-    <t>ND</t>
-  </si>
-  <si>
-    <t>OH</t>
-  </si>
-  <si>
-    <t>OK</t>
-  </si>
-  <si>
-    <t>OR</t>
-  </si>
-  <si>
-    <t>PA</t>
-  </si>
-  <si>
-    <t>SC</t>
-  </si>
-  <si>
-    <t>SD</t>
-  </si>
-  <si>
-    <t>TN</t>
-  </si>
-  <si>
-    <t>TX</t>
-  </si>
-  <si>
-    <t>UT</t>
-  </si>
-  <si>
-    <t>VT</t>
-  </si>
-  <si>
-    <t>VA</t>
-  </si>
-  <si>
-    <t>WA</t>
-  </si>
-  <si>
-    <t>WV</t>
-  </si>
-  <si>
-    <t>WI</t>
-  </si>
-  <si>
-    <t>WY</t>
-  </si>
-  <si>
-    <t>NX</t>
-  </si>
-  <si>
-    <t>RI</t>
-  </si>
-  <si>
     <t>Parameters</t>
   </si>
   <si>
@@ -249,12 +92,6 @@
     <t>"Medicare Administrative Contractor (MAC) COVID-19 Test Pricing." Centers for Medicare&amp; Medicaid Services, https://www.cms.gov/files/document/mac-covid-19-test-pricing.pdf</t>
   </si>
   <si>
-    <t>State</t>
-  </si>
-  <si>
-    <t>Labor force participate rate</t>
-  </si>
-  <si>
     <t>median daily salary</t>
   </si>
   <si>
@@ -265,9 +102,6 @@
   </si>
   <si>
     <t>unit cost of universal testing</t>
-  </si>
-  <si>
-    <t>UMASS</t>
   </si>
 </sst>
 </file>
@@ -654,13 +488,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>11</v>
-      </c>
-      <c r="C1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -772,18 +606,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AAA7260-4112-4A9A-AF13-FA7948AFBE54}">
   <dimension ref="A1:E102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -1609,456 +1443,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2A7DA8D-46C4-FD45-8E25-D98271EFF255}">
-  <dimension ref="A1:B54"/>
-  <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2">
-        <v>57.2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3">
-        <v>63.4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4">
-        <v>61.8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6">
-        <v>61.8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7">
-        <v>68.3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8">
-        <v>66.8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10">
-        <v>58.8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11">
-        <v>62.4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12">
-        <v>62.1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13">
-        <v>61.4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14">
-        <v>64.2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15">
-        <v>63.4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16">
-        <v>62.2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17">
-        <v>69.900000000000006</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18">
-        <v>67.099999999999994</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19">
-        <v>58.6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20">
-        <v>60.2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21">
-        <v>62.4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22">
-        <v>68.8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23">
-        <v>66.2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24">
-        <v>61.3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25">
-        <v>69.099999999999994</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>36</v>
-      </c>
-      <c r="B26">
-        <v>55.6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>39</v>
-      </c>
-      <c r="B27">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>40</v>
-      </c>
-      <c r="B28">
-        <v>62.8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>41</v>
-      </c>
-      <c r="B29">
-        <v>71.2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>42</v>
-      </c>
-      <c r="B30">
-        <v>63.6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>43</v>
-      </c>
-      <c r="B31">
-        <v>68.2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>63</v>
-      </c>
-      <c r="B32">
-        <v>64.599999999999994</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>45</v>
-      </c>
-      <c r="B33">
-        <v>59.1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>46</v>
-      </c>
-      <c r="B34">
-        <v>60.3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>44</v>
-      </c>
-      <c r="B35">
-        <v>58.8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>47</v>
-      </c>
-      <c r="B36">
-        <v>59.7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>48</v>
-      </c>
-      <c r="B37">
-        <v>69.2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>49</v>
-      </c>
-      <c r="B38">
-        <v>61.9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>50</v>
-      </c>
-      <c r="B39">
-        <v>60.5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>51</v>
-      </c>
-      <c r="B40">
-        <v>61.4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>64</v>
-      </c>
-      <c r="B41">
-        <v>63.6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>52</v>
-      </c>
-      <c r="B42">
-        <v>65.400000000000006</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>53</v>
-      </c>
-      <c r="B43">
-        <v>58.4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>54</v>
-      </c>
-      <c r="B44">
-        <v>69.099999999999994</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>55</v>
-      </c>
-      <c r="B45">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>9</v>
-      </c>
-      <c r="B46">
-        <v>63.2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>56</v>
-      </c>
-      <c r="B47">
-        <v>67.900000000000006</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>57</v>
-      </c>
-      <c r="B48">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>58</v>
-      </c>
-      <c r="B49">
-        <v>66.099999999999994</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>59</v>
-      </c>
-      <c r="B50">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>60</v>
-      </c>
-      <c r="B51">
-        <v>56.7</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>61</v>
-      </c>
-      <c r="B52">
-        <v>66.8</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>62</v>
-      </c>
-      <c r="B53">
-        <v>65.3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>77</v>
-      </c>
-      <c r="B54">
-        <v>68.8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{355BA315-07C5-1346-8104-7B239232D5F2}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -2070,16 +1454,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>76</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2101,11 +1485,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96071F37-3BD4-F747-9362-8F98144F29F6}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
@@ -2113,26 +1497,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>68</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/app/COVID19master/data/RL_input.xlsx
+++ b/app/COVID19master/data/RL_input.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eleanor/Documents/GitHub/COVID-University/app/COVID19master/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92680FF7-8986-AC46-8857-90C85E0F7C37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E521D6D-F436-2A49-B010-E9086521FCF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="460" windowWidth="21840" windowHeight="13140" activeTab="1" xr2:uid="{96C41B70-22ED-C54B-8170-43C10D55C89D}"/>
+    <workbookView xWindow="960" yWindow="460" windowWidth="21840" windowHeight="13140" firstSheet="2" activeTab="4" xr2:uid="{96C41B70-22ED-C54B-8170-43C10D55C89D}"/>
   </bookViews>
   <sheets>
     <sheet name="VSL" sheetId="1" r:id="rId1"/>
     <sheet name="VSL_mod" sheetId="5" r:id="rId2"/>
-    <sheet name="others" sheetId="7" r:id="rId3"/>
-    <sheet name="Source" sheetId="10" r:id="rId4"/>
+    <sheet name="labor_for" sheetId="4" r:id="rId3"/>
+    <sheet name="others" sheetId="7" r:id="rId4"/>
+    <sheet name="Source" sheetId="10" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="78">
   <si>
     <t>0</t>
   </si>
@@ -62,6 +63,9 @@
     <t>80</t>
   </si>
   <si>
+    <t>DistrictofColumbia</t>
+  </si>
+  <si>
     <t>lower_age</t>
   </si>
   <si>
@@ -74,6 +78,159 @@
     <t>age</t>
   </si>
   <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>AK</t>
+  </si>
+  <si>
+    <t>AZ</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>CT</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>FL</t>
+  </si>
+  <si>
+    <t>GA</t>
+  </si>
+  <si>
+    <t>HI</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>IL</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>IA</t>
+  </si>
+  <si>
+    <t>KS</t>
+  </si>
+  <si>
+    <t>KY</t>
+  </si>
+  <si>
+    <t>LA</t>
+  </si>
+  <si>
+    <t>ME</t>
+  </si>
+  <si>
+    <t>MD</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>MI</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>MO</t>
+  </si>
+  <si>
+    <t>MN</t>
+  </si>
+  <si>
+    <t>MT</t>
+  </si>
+  <si>
+    <t>NE</t>
+  </si>
+  <si>
+    <t>NV</t>
+  </si>
+  <si>
+    <t>NH</t>
+  </si>
+  <si>
+    <t>NJ</t>
+  </si>
+  <si>
+    <t>NM</t>
+  </si>
+  <si>
+    <t>NY</t>
+  </si>
+  <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t>ND</t>
+  </si>
+  <si>
+    <t>OH</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>TX</t>
+  </si>
+  <si>
+    <t>UT</t>
+  </si>
+  <si>
+    <t>VT</t>
+  </si>
+  <si>
+    <t>VA</t>
+  </si>
+  <si>
+    <t>WA</t>
+  </si>
+  <si>
+    <t>WV</t>
+  </si>
+  <si>
+    <t>WI</t>
+  </si>
+  <si>
+    <t>WY</t>
+  </si>
+  <si>
+    <t>NX</t>
+  </si>
+  <si>
+    <t>RI</t>
+  </si>
+  <si>
     <t>Parameters</t>
   </si>
   <si>
@@ -92,6 +249,12 @@
     <t>"Medicare Administrative Contractor (MAC) COVID-19 Test Pricing." Centers for Medicare&amp; Medicaid Services, https://www.cms.gov/files/document/mac-covid-19-test-pricing.pdf</t>
   </si>
   <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Labor force participate rate</t>
+  </si>
+  <si>
     <t>median daily salary</t>
   </si>
   <si>
@@ -102,6 +265,9 @@
   </si>
   <si>
     <t>unit cost of universal testing</t>
+  </si>
+  <si>
+    <t>UMASS</t>
   </si>
 </sst>
 </file>
@@ -488,13 +654,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -606,18 +772,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AAA7260-4112-4A9A-AF13-FA7948AFBE54}">
   <dimension ref="A1:E102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
         <v>12</v>
-      </c>
-      <c r="B1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -1443,6 +1609,456 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2A7DA8D-46C4-FD45-8E25-D98271EFF255}">
+  <dimension ref="A1:B54"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2">
+        <v>57.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>63.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4">
+        <v>61.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6">
+        <v>61.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7">
+        <v>68.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8">
+        <v>66.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10">
+        <v>58.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11">
+        <v>62.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12">
+        <v>62.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13">
+        <v>61.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14">
+        <v>64.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15">
+        <v>63.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16">
+        <v>62.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17">
+        <v>69.900000000000006</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18">
+        <v>67.099999999999994</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19">
+        <v>58.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20">
+        <v>60.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21">
+        <v>62.4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22">
+        <v>68.8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23">
+        <v>66.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24">
+        <v>61.3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25">
+        <v>69.099999999999994</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26">
+        <v>55.6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28">
+        <v>62.8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29">
+        <v>71.2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30">
+        <v>63.6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31">
+        <v>68.2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32">
+        <v>64.599999999999994</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33">
+        <v>59.1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34">
+        <v>60.3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35">
+        <v>58.8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36">
+        <v>59.7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37">
+        <v>69.2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>49</v>
+      </c>
+      <c r="B38">
+        <v>61.9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>50</v>
+      </c>
+      <c r="B39">
+        <v>60.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>51</v>
+      </c>
+      <c r="B40">
+        <v>61.4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>64</v>
+      </c>
+      <c r="B41">
+        <v>63.6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42">
+        <v>65.400000000000006</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43">
+        <v>58.4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>54</v>
+      </c>
+      <c r="B44">
+        <v>69.099999999999994</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>55</v>
+      </c>
+      <c r="B45">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46">
+        <v>63.2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>56</v>
+      </c>
+      <c r="B47">
+        <v>67.900000000000006</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>57</v>
+      </c>
+      <c r="B48">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>58</v>
+      </c>
+      <c r="B49">
+        <v>66.099999999999994</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>59</v>
+      </c>
+      <c r="B50">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>60</v>
+      </c>
+      <c r="B51">
+        <v>56.7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>61</v>
+      </c>
+      <c r="B52">
+        <v>66.8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>62</v>
+      </c>
+      <c r="B53">
+        <v>65.3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>77</v>
+      </c>
+      <c r="B54">
+        <v>68.8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{355BA315-07C5-1346-8104-7B239232D5F2}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -1454,16 +2070,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="D1" t="s">
-        <v>22</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1485,11 +2101,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96071F37-3BD4-F747-9362-8F98144F29F6}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
@@ -1497,26 +2113,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
